--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_237.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_237.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,640 +488,654 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_204</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.141025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:33.698526', '0:00:40.885102')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_41</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08654867256637168</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['Eb', 'Eb', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
+          <t>[['F', 'F', 'F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(67.76, 77.5), (16.04, 22.4)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.700000', '0:00:15.420000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:13.330000', '0:02:20.400000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1617873651771957</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G'], ['G', 'G', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.233974358974359</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (11.55, 15.79)]</t>
+          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54), (8.02, 15.1)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:37.840000', '0:00:45.900000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:35.860000', '0:00:39.460000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1595022624434389</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2660098522167488</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3080357142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(96.84, 103.06), (41.32, 48.94)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(97.12, 104.1), (131.2, 136.34)]</t>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2048066875653083</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(72.272131, 79.249727)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(48.25, 53.91)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1534526854219949</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.953211)]</t>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B', 'F#', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(24.838594, 30.028253)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1542207792207792</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.82, 12.93)]</t>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'B:min'], ['D', 'A', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj', 'A:min/C'], ['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(70.583424, 80.010725), (16.562199, 24.735623)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.12, 25.62), (61.32, 66.64)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1258223684210526</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['B', 'E', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['E', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.717755, 26.14043), (46.016712, 58.392947), (6.357029, 23.632675)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.722199, 26.760929), (39.148775, 43.514126), (65.81034, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1006864988558352</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C/7', 'A:min', 'C/5']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.459543, 6.034751)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(22.808367, 26.52356)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'B'], ['E', 'A', 'B', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5', 'F#/4'], ['D', 'G', 'A', 'G']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(51.652811, 68.150589), (53.138888, 71.192403)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(127.431, 133.985), (42.922, 48.17)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1217532467532468</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(63.861, 66.732)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.217911877394636</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A', 'D', 'A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'G', 'D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.374897, 29.507324)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(33.431496, 46.225691)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
